--- a/data/discussion/4_multi-session.xlsx
+++ b/data/discussion/4_multi-session.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348EE9E-0F60-4828-ACA1-166D82BB037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AF221-C5A9-49C0-9BF5-15D43E8F78A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -619,13 +619,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="20.77734375" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
@@ -783,7 +783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -815,7 +815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="123.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -835,7 +835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -852,7 +852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -866,7 +866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
@@ -883,9 +883,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/discussion/4_multi-session.xlsx
+++ b/data/discussion/4_multi-session.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AF221-C5A9-49C0-9BF5-15D43E8F78A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C3DD8-FF94-41EC-B6B1-5CF19143F7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>old notes</t>
   </si>
@@ -204,9 +204,6 @@
     <t>at first map based on single dataset + over time extend it w/ data from sessions (seems that tries to be global multisession)</t>
   </si>
   <si>
-    <t>global multisession</t>
-  </si>
-  <si>
     <t>anchor nodes</t>
   </si>
   <si>
@@ -265,13 +262,19 @@
   </si>
   <si>
     <t>laser-based SLAM to register multiple sessions of camera-LIDAR calibrated data in global consistent coordinate</t>
+  </si>
+  <si>
+    <t>independent multi-session</t>
+  </si>
+  <si>
+    <t>global multi-session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,21 +295,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -321,20 +322,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,49 +627,49 @@
     <col min="2" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -730,22 +732,22 @@
         <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
@@ -765,22 +767,22 @@
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
@@ -800,19 +802,19 @@
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="123.75" x14ac:dyDescent="0.25">
@@ -832,7 +834,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
@@ -849,7 +851,7 @@
         <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
@@ -879,9 +881,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAF08E7-2E4B-4519-8D42-D953DA0357FD}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -889,101 +891,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
